--- a/results/FrequencyTables/27341108_gRNA-1.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-1.xlsx
@@ -465,49 +465,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="C2">
-        <v>0.912087912087912</v>
+        <v>0.958549222797927</v>
       </c>
       <c r="D2">
-        <v>0.0659340659340659</v>
+        <v>0.0466321243523316</v>
       </c>
       <c r="E2">
-        <v>0.978021978021978</v>
+        <v>0.987046632124352</v>
       </c>
       <c r="F2">
-        <v>0.978021978021978</v>
+        <v>0.989637305699482</v>
       </c>
       <c r="G2">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="H2">
-        <v>0.978021978021978</v>
+        <v>0.987046632124352</v>
       </c>
       <c r="I2">
-        <v>0.0549450549450549</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="J2">
-        <v>0.989010989010989</v>
+        <v>0.955958549222798</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -522,16 +522,16 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.021978021978022</v>
+        <v>0.0129533678756477</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.934065934065934</v>
+        <v>0.953367875647668</v>
       </c>
       <c r="E3">
-        <v>0.021978021978022</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,28 +557,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="I3">
-        <v>0.0769230769230769</v>
+        <v>0.132124352331606</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="L3">
-        <v>0.956043956043956</v>
+        <v>0.893782383419689</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.994818652849741</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="O3">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.032967032967033</v>
+        <v>0.10880829015544</v>
       </c>
       <c r="S3">
-        <v>0.967032967032967</v>
+        <v>0.813471502590674</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="X3">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.978021978021978</v>
+        <v>0.981865284974093</v>
       </c>
       <c r="C4">
-        <v>0.0769230769230769</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -625,43 +625,43 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.021978021978022</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="G4">
-        <v>0.989010989010989</v>
+        <v>0.989637305699482</v>
       </c>
       <c r="H4">
-        <v>0.021978021978022</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="I4">
-        <v>0.384615384615385</v>
+        <v>0.181347150259067</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.038860103626943</v>
       </c>
       <c r="K4">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="L4">
-        <v>0.010989010989011</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.010989010989011</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.99740932642487</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.978021978021978</v>
+        <v>0.979274611398964</v>
       </c>
       <c r="V4">
-        <v>0.010989010989011</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.994818652849741</v>
       </c>
       <c r="X4">
-        <v>0.989010989010989</v>
+        <v>0.984455958549223</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,46 +687,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.010989010989011</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="C5">
-        <v>0.010989010989011</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="I5">
-        <v>0.483516483516484</v>
+        <v>0.655440414507772</v>
       </c>
       <c r="J5">
-        <v>0.010989010989011</v>
+        <v>0.00518134715025907</v>
       </c>
       <c r="K5">
-        <v>0.989010989010989</v>
+        <v>0.987046632124352</v>
       </c>
       <c r="L5">
-        <v>0.032967032967033</v>
+        <v>0.0984455958549223</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
       <c r="N5">
-        <v>0.989010989010989</v>
+        <v>0.992227979274611</v>
       </c>
       <c r="O5">
-        <v>0.989010989010989</v>
+        <v>0.987046632124352</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -735,25 +735,25 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.967032967032967</v>
+        <v>0.88860103626943</v>
       </c>
       <c r="S5">
-        <v>0.032967032967033</v>
+        <v>0.186528497409326</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0077720207253886</v>
       </c>
       <c r="V5">
-        <v>0.989010989010989</v>
+        <v>0.984455958549223</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00259067357512953</v>
       </c>
     </row>
   </sheetData>
